--- a/downloaded_files/EPES451_Lecture-35840.xlsx
+++ b/downloaded_files/EPES451_Lecture-35840.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210179</x:t>
+  </x:si>
+  <x:si>
+    <x:t>أحمد خالد عبد الهادي ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAhmed Khaled Abd Al-hady Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210403</x:t>
@@ -350,7 +359,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -650,7 +659,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -741,7 +750,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.682150463</x:v>
+        <x:v>45931.3269603356</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -773,7 +782,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6821549769</x:v>
+        <x:v>45906.682150463</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -805,7 +814,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6649310995</x:v>
+        <x:v>45906.6821549769</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -837,7 +846,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6710427431</x:v>
+        <x:v>45906.6649310995</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -869,7 +878,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6726819444</x:v>
+        <x:v>45906.6710427431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -897,9 +906,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.6726819444</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -922,16 +933,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.6759029745</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -963,7 +972,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6803784375</x:v>
+        <x:v>45906.6759029745</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -995,7 +1004,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6852530093</x:v>
+        <x:v>45906.6803784375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1027,7 +1036,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45906.6852530093</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1059,7 +1068,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6707153588</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1091,7 +1100,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6662139699</x:v>
+        <x:v>45906.6707153588</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1123,7 +1132,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6711642361</x:v>
+        <x:v>45906.6662139699</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1155,7 +1164,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6685497685</x:v>
+        <x:v>45906.6711642361</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1187,7 +1196,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6692516204</x:v>
+        <x:v>45906.6685497685</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1219,7 +1228,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6691309838</x:v>
+        <x:v>45906.6692516204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6769313657</x:v>
+        <x:v>45906.6691309838</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6769313657</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6685414352</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6804053588</x:v>
+        <x:v>45906.6685414352</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6820001505</x:v>
+        <x:v>45906.6804053588</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6815966435</x:v>
+        <x:v>45906.6820001505</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6666656597</x:v>
+        <x:v>45906.6815966435</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1460,6 +1469,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45906.6666656597</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
